--- a/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
+++ b/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>660</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>240</v>
@@ -508,127 +508,127 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>660</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>720</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>880</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1040</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2520</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1080</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45537</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>1080</v>
@@ -636,57 +636,321 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>320</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45579</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45593</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>320</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45600</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45607</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45635</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B64" t="n">
         <v>120</v>
       </c>
     </row>
@@ -701,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,89 +987,185 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2340</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2880</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1340</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3160</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2600</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>760</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1560</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2000</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>280</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>120</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
+++ b/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -981,7 +982,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1167,6 +1168,1041 @@
       </c>
       <c r="B24" t="n">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-410.4932435600022</v>
+      </c>
+      <c r="D2" t="n">
+        <v>859.1393161235943</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>233</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-376.8947906502653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>847.2370996090932</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>239</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-399.6392454518359</v>
+      </c>
+      <c r="D4" t="n">
+        <v>860.0218364442676</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>244</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-381.7531993866939</v>
+      </c>
+      <c r="D5" t="n">
+        <v>821.7563216302245</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>250</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-403.398519983331</v>
+      </c>
+      <c r="D6" t="n">
+        <v>879.6843019837203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>255</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-413.1287705968193</v>
+      </c>
+      <c r="D7" t="n">
+        <v>879.7002737064048</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>261</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-340.7637337073002</v>
+      </c>
+      <c r="D8" t="n">
+        <v>915.59855428891</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>266</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-351.4146721376774</v>
+      </c>
+      <c r="D9" t="n">
+        <v>846.9609611665835</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>283</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-357.8984721033828</v>
+      </c>
+      <c r="D10" t="n">
+        <v>852.4895613365679</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>288</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-389.5696100580965</v>
+      </c>
+      <c r="D11" t="n">
+        <v>907.0781705592138</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>299</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-300.5922159342132</v>
+      </c>
+      <c r="D12" t="n">
+        <v>916.1149699857464</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>305</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-299.1106973967053</v>
+      </c>
+      <c r="D13" t="n">
+        <v>957.5740644839062</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>310</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-291.076998370101</v>
+      </c>
+      <c r="D14" t="n">
+        <v>934.7047624454884</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>315</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-322.9771889756356</v>
+      </c>
+      <c r="D15" t="n">
+        <v>926.9582226858903</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>326</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-303.0677014798375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>993.004833857039</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>332</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-309.2029652543403</v>
+      </c>
+      <c r="D17" t="n">
+        <v>907.5999198525179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>337</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-318.9786037022743</v>
+      </c>
+      <c r="D18" t="n">
+        <v>965.0677520674819</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>354</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-241.3537652058225</v>
+      </c>
+      <c r="D19" t="n">
+        <v>949.9127686344829</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>359</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-276.5544165592271</v>
+      </c>
+      <c r="D20" t="n">
+        <v>981.0856265905377</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>365</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-218.8753503163042</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1050.358598517618</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>370</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-246.864135510122</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1002.069906323047</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>376</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-271.2562390508762</v>
+      </c>
+      <c r="D23" t="n">
+        <v>928.6940351272958</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>387</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-231.3989733407674</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1013.889571678055</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>409</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-214.0943130904239</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1025.751494920505</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>431</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-226.7688532106395</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1061.305167272373</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>447</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-186.4886603240689</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1024.262888725233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>453</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-182.3412301880074</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1077.782603227748</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>458</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-171.1825864193552</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1051.836447567895</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>464</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-172.4165668869585</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1120.739896359273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>469</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-138.6136284959477</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1092.356418513674</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>480</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-152.9237819019959</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1118.455652343468</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>491</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-142.2042531151615</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1111.67423530389</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>497</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-87.25163535151955</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1140.42729225696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-97.84159631120296</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1128.712031602635</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>519</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-106.5443012715124</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1199.048500865504</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>524</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-40.11841710297784</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1130.997271100374</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>530</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-83.40498199862375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1156.829526160674</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>535</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-91.60573605448347</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1144.45395173004</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>541</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-115.0290018007539</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1172.102298992351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>546</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-93.02208397554803</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1207.508233243146</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>552</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-55.19619359096368</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1159.046920515786</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>557</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-81.05790545883364</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1188.502959506497</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>563</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-60.72213639026643</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1188.604523024591</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>574</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-7.800208581160937</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1181.668161218981</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>585</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-54.33364589716685</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1178.061481133879</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>590</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-51.7354168869799</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1206.116253578567</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>596</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-72.06602418745426</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1196.281446956017</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>601</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-2.434364600724424</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1233.334050411602</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>607</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-55.8458141315491</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1213.934511114643</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>645</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9821262356451542</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1284.806746592654</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>651</v>
+      </c>
+      <c r="C52" t="n">
+        <v>23.18769291766399</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1263.358875121585</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>656</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23.38932140678098</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1274.694879022434</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>662</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.581338155361554</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1278.158801975783</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>695</v>
+      </c>
+      <c r="C55" t="n">
+        <v>93.1399316590619</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1297.021447138035</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>700</v>
+      </c>
+      <c r="C56" t="n">
+        <v>66.37407351135698</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1330.009347472816</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>706</v>
+      </c>
+      <c r="C57" t="n">
+        <v>56.40647976185933</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1371.540057312838</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>717</v>
+      </c>
+      <c r="C58" t="n">
+        <v>92.28074113428376</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1330.779108312222</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>722</v>
+      </c>
+      <c r="C59" t="n">
+        <v>128.0798912592305</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1341.064507002274</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>739</v>
+      </c>
+      <c r="C60" t="n">
+        <v>155.126520367054</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1337.417918431052</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>750</v>
+      </c>
+      <c r="C61" t="n">
+        <v>89.85116536111737</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1380.8381037471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>755</v>
+      </c>
+      <c r="C62" t="n">
+        <v>136.5126730233247</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1411.320125484511</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>761</v>
+      </c>
+      <c r="C63" t="n">
+        <v>159.4287331477285</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1357.823969289018</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>783</v>
+      </c>
+      <c r="C64" t="n">
+        <v>132.72712680059</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1399.50261514568</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>788</v>
+      </c>
+      <c r="C65" t="n">
+        <v>120.6724736361031</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1427.635371625442</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>794</v>
+      </c>
+      <c r="C66" t="n">
+        <v>160.5687780261879</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1443.200924840191</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>799</v>
+      </c>
+      <c r="C67" t="n">
+        <v>195.7355193533761</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1418.162751249637</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>805</v>
+      </c>
+      <c r="C68" t="n">
+        <v>206.9822573022963</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1450.623310036378</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>810</v>
+      </c>
+      <c r="C69" t="n">
+        <v>219.6235194680325</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1433.938290606466</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>816</v>
+      </c>
+      <c r="C70" t="n">
+        <v>220.9827374933692</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1453.227707019622</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>821</v>
+      </c>
+      <c r="C71" t="n">
+        <v>182.6756279685951</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1404.488828983327</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>827</v>
+      </c>
+      <c r="C72" t="n">
+        <v>196.5371999939747</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1396.652930856747</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
+++ b/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
@@ -1181,7 +1181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,16 +1200,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1218,12 +1208,6 @@
       <c r="B2" t="n">
         <v>228</v>
       </c>
-      <c r="C2" t="n">
-        <v>-410.4932435600022</v>
-      </c>
-      <c r="D2" t="n">
-        <v>859.1393161235943</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1232,12 +1216,6 @@
       <c r="B3" t="n">
         <v>233</v>
       </c>
-      <c r="C3" t="n">
-        <v>-376.8947906502653</v>
-      </c>
-      <c r="D3" t="n">
-        <v>847.2370996090932</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1246,12 +1224,6 @@
       <c r="B4" t="n">
         <v>239</v>
       </c>
-      <c r="C4" t="n">
-        <v>-399.6392454518359</v>
-      </c>
-      <c r="D4" t="n">
-        <v>860.0218364442676</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1260,12 +1232,6 @@
       <c r="B5" t="n">
         <v>244</v>
       </c>
-      <c r="C5" t="n">
-        <v>-381.7531993866939</v>
-      </c>
-      <c r="D5" t="n">
-        <v>821.7563216302245</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1274,12 +1240,6 @@
       <c r="B6" t="n">
         <v>250</v>
       </c>
-      <c r="C6" t="n">
-        <v>-403.398519983331</v>
-      </c>
-      <c r="D6" t="n">
-        <v>879.6843019837203</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1288,12 +1248,6 @@
       <c r="B7" t="n">
         <v>255</v>
       </c>
-      <c r="C7" t="n">
-        <v>-413.1287705968193</v>
-      </c>
-      <c r="D7" t="n">
-        <v>879.7002737064048</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1302,12 +1256,6 @@
       <c r="B8" t="n">
         <v>261</v>
       </c>
-      <c r="C8" t="n">
-        <v>-340.7637337073002</v>
-      </c>
-      <c r="D8" t="n">
-        <v>915.59855428891</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1316,12 +1264,6 @@
       <c r="B9" t="n">
         <v>266</v>
       </c>
-      <c r="C9" t="n">
-        <v>-351.4146721376774</v>
-      </c>
-      <c r="D9" t="n">
-        <v>846.9609611665835</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1330,12 +1272,6 @@
       <c r="B10" t="n">
         <v>283</v>
       </c>
-      <c r="C10" t="n">
-        <v>-357.8984721033828</v>
-      </c>
-      <c r="D10" t="n">
-        <v>852.4895613365679</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1344,12 +1280,6 @@
       <c r="B11" t="n">
         <v>288</v>
       </c>
-      <c r="C11" t="n">
-        <v>-389.5696100580965</v>
-      </c>
-      <c r="D11" t="n">
-        <v>907.0781705592138</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1358,12 +1288,6 @@
       <c r="B12" t="n">
         <v>299</v>
       </c>
-      <c r="C12" t="n">
-        <v>-300.5922159342132</v>
-      </c>
-      <c r="D12" t="n">
-        <v>916.1149699857464</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1372,12 +1296,6 @@
       <c r="B13" t="n">
         <v>305</v>
       </c>
-      <c r="C13" t="n">
-        <v>-299.1106973967053</v>
-      </c>
-      <c r="D13" t="n">
-        <v>957.5740644839062</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1386,12 +1304,6 @@
       <c r="B14" t="n">
         <v>310</v>
       </c>
-      <c r="C14" t="n">
-        <v>-291.076998370101</v>
-      </c>
-      <c r="D14" t="n">
-        <v>934.7047624454884</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1400,12 +1312,6 @@
       <c r="B15" t="n">
         <v>315</v>
       </c>
-      <c r="C15" t="n">
-        <v>-322.9771889756356</v>
-      </c>
-      <c r="D15" t="n">
-        <v>926.9582226858903</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1414,12 +1320,6 @@
       <c r="B16" t="n">
         <v>326</v>
       </c>
-      <c r="C16" t="n">
-        <v>-303.0677014798375</v>
-      </c>
-      <c r="D16" t="n">
-        <v>993.004833857039</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1428,12 +1328,6 @@
       <c r="B17" t="n">
         <v>332</v>
       </c>
-      <c r="C17" t="n">
-        <v>-309.2029652543403</v>
-      </c>
-      <c r="D17" t="n">
-        <v>907.5999198525179</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1442,12 +1336,6 @@
       <c r="B18" t="n">
         <v>337</v>
       </c>
-      <c r="C18" t="n">
-        <v>-318.9786037022743</v>
-      </c>
-      <c r="D18" t="n">
-        <v>965.0677520674819</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1456,12 +1344,6 @@
       <c r="B19" t="n">
         <v>354</v>
       </c>
-      <c r="C19" t="n">
-        <v>-241.3537652058225</v>
-      </c>
-      <c r="D19" t="n">
-        <v>949.9127686344829</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1470,12 +1352,6 @@
       <c r="B20" t="n">
         <v>359</v>
       </c>
-      <c r="C20" t="n">
-        <v>-276.5544165592271</v>
-      </c>
-      <c r="D20" t="n">
-        <v>981.0856265905377</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1484,12 +1360,6 @@
       <c r="B21" t="n">
         <v>365</v>
       </c>
-      <c r="C21" t="n">
-        <v>-218.8753503163042</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1050.358598517618</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1498,12 +1368,6 @@
       <c r="B22" t="n">
         <v>370</v>
       </c>
-      <c r="C22" t="n">
-        <v>-246.864135510122</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1002.069906323047</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1512,12 +1376,6 @@
       <c r="B23" t="n">
         <v>376</v>
       </c>
-      <c r="C23" t="n">
-        <v>-271.2562390508762</v>
-      </c>
-      <c r="D23" t="n">
-        <v>928.6940351272958</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1526,12 +1384,6 @@
       <c r="B24" t="n">
         <v>387</v>
       </c>
-      <c r="C24" t="n">
-        <v>-231.3989733407674</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1013.889571678055</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1540,12 +1392,6 @@
       <c r="B25" t="n">
         <v>409</v>
       </c>
-      <c r="C25" t="n">
-        <v>-214.0943130904239</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1025.751494920505</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1554,12 +1400,6 @@
       <c r="B26" t="n">
         <v>431</v>
       </c>
-      <c r="C26" t="n">
-        <v>-226.7688532106395</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1061.305167272373</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1568,12 +1408,6 @@
       <c r="B27" t="n">
         <v>447</v>
       </c>
-      <c r="C27" t="n">
-        <v>-186.4886603240689</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1024.262888725233</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1582,12 +1416,6 @@
       <c r="B28" t="n">
         <v>453</v>
       </c>
-      <c r="C28" t="n">
-        <v>-182.3412301880074</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1077.782603227748</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1596,12 +1424,6 @@
       <c r="B29" t="n">
         <v>458</v>
       </c>
-      <c r="C29" t="n">
-        <v>-171.1825864193552</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1051.836447567895</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1610,12 +1432,6 @@
       <c r="B30" t="n">
         <v>464</v>
       </c>
-      <c r="C30" t="n">
-        <v>-172.4165668869585</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1120.739896359273</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1624,12 +1440,6 @@
       <c r="B31" t="n">
         <v>469</v>
       </c>
-      <c r="C31" t="n">
-        <v>-138.6136284959477</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1092.356418513674</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1638,12 +1448,6 @@
       <c r="B32" t="n">
         <v>480</v>
       </c>
-      <c r="C32" t="n">
-        <v>-152.9237819019959</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1118.455652343468</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1652,12 +1456,6 @@
       <c r="B33" t="n">
         <v>491</v>
       </c>
-      <c r="C33" t="n">
-        <v>-142.2042531151615</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1111.67423530389</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1666,12 +1464,6 @@
       <c r="B34" t="n">
         <v>497</v>
       </c>
-      <c r="C34" t="n">
-        <v>-87.25163535151955</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1140.42729225696</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1680,12 +1472,6 @@
       <c r="B35" t="n">
         <v>513</v>
       </c>
-      <c r="C35" t="n">
-        <v>-97.84159631120296</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1128.712031602635</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1694,12 +1480,6 @@
       <c r="B36" t="n">
         <v>519</v>
       </c>
-      <c r="C36" t="n">
-        <v>-106.5443012715124</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1199.048500865504</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1708,12 +1488,6 @@
       <c r="B37" t="n">
         <v>524</v>
       </c>
-      <c r="C37" t="n">
-        <v>-40.11841710297784</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1130.997271100374</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1722,12 +1496,6 @@
       <c r="B38" t="n">
         <v>530</v>
       </c>
-      <c r="C38" t="n">
-        <v>-83.40498199862375</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1156.829526160674</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1736,12 +1504,6 @@
       <c r="B39" t="n">
         <v>535</v>
       </c>
-      <c r="C39" t="n">
-        <v>-91.60573605448347</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1144.45395173004</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1750,12 +1512,6 @@
       <c r="B40" t="n">
         <v>541</v>
       </c>
-      <c r="C40" t="n">
-        <v>-115.0290018007539</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1172.102298992351</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1764,12 +1520,6 @@
       <c r="B41" t="n">
         <v>546</v>
       </c>
-      <c r="C41" t="n">
-        <v>-93.02208397554803</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1207.508233243146</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1778,12 +1528,6 @@
       <c r="B42" t="n">
         <v>552</v>
       </c>
-      <c r="C42" t="n">
-        <v>-55.19619359096368</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1159.046920515786</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1792,12 +1536,6 @@
       <c r="B43" t="n">
         <v>557</v>
       </c>
-      <c r="C43" t="n">
-        <v>-81.05790545883364</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1188.502959506497</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1806,12 +1544,6 @@
       <c r="B44" t="n">
         <v>563</v>
       </c>
-      <c r="C44" t="n">
-        <v>-60.72213639026643</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1188.604523024591</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1820,12 +1552,6 @@
       <c r="B45" t="n">
         <v>574</v>
       </c>
-      <c r="C45" t="n">
-        <v>-7.800208581160937</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1181.668161218981</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1834,12 +1560,6 @@
       <c r="B46" t="n">
         <v>585</v>
       </c>
-      <c r="C46" t="n">
-        <v>-54.33364589716685</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1178.061481133879</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1848,12 +1568,6 @@
       <c r="B47" t="n">
         <v>590</v>
       </c>
-      <c r="C47" t="n">
-        <v>-51.7354168869799</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1206.116253578567</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1862,12 +1576,6 @@
       <c r="B48" t="n">
         <v>596</v>
       </c>
-      <c r="C48" t="n">
-        <v>-72.06602418745426</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1196.281446956017</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1876,12 +1584,6 @@
       <c r="B49" t="n">
         <v>601</v>
       </c>
-      <c r="C49" t="n">
-        <v>-2.434364600724424</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1233.334050411602</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1890,12 +1592,6 @@
       <c r="B50" t="n">
         <v>607</v>
       </c>
-      <c r="C50" t="n">
-        <v>-55.8458141315491</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1213.934511114643</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1904,12 +1600,6 @@
       <c r="B51" t="n">
         <v>645</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.9821262356451542</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1284.806746592654</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1918,12 +1608,6 @@
       <c r="B52" t="n">
         <v>651</v>
       </c>
-      <c r="C52" t="n">
-        <v>23.18769291766399</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1263.358875121585</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1932,12 +1616,6 @@
       <c r="B53" t="n">
         <v>656</v>
       </c>
-      <c r="C53" t="n">
-        <v>23.38932140678098</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1274.694879022434</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1946,12 +1624,6 @@
       <c r="B54" t="n">
         <v>662</v>
       </c>
-      <c r="C54" t="n">
-        <v>7.581338155361554</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1278.158801975783</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1960,12 +1632,6 @@
       <c r="B55" t="n">
         <v>695</v>
       </c>
-      <c r="C55" t="n">
-        <v>93.1399316590619</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1297.021447138035</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1974,12 +1640,6 @@
       <c r="B56" t="n">
         <v>700</v>
       </c>
-      <c r="C56" t="n">
-        <v>66.37407351135698</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1330.009347472816</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1988,12 +1648,6 @@
       <c r="B57" t="n">
         <v>706</v>
       </c>
-      <c r="C57" t="n">
-        <v>56.40647976185933</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1371.540057312838</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2002,12 +1656,6 @@
       <c r="B58" t="n">
         <v>717</v>
       </c>
-      <c r="C58" t="n">
-        <v>92.28074113428376</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1330.779108312222</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2016,12 +1664,6 @@
       <c r="B59" t="n">
         <v>722</v>
       </c>
-      <c r="C59" t="n">
-        <v>128.0798912592305</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1341.064507002274</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2030,12 +1672,6 @@
       <c r="B60" t="n">
         <v>739</v>
       </c>
-      <c r="C60" t="n">
-        <v>155.126520367054</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1337.417918431052</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2044,12 +1680,6 @@
       <c r="B61" t="n">
         <v>750</v>
       </c>
-      <c r="C61" t="n">
-        <v>89.85116536111737</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1380.8381037471</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2058,12 +1688,6 @@
       <c r="B62" t="n">
         <v>755</v>
       </c>
-      <c r="C62" t="n">
-        <v>136.5126730233247</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1411.320125484511</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2072,12 +1696,6 @@
       <c r="B63" t="n">
         <v>761</v>
       </c>
-      <c r="C63" t="n">
-        <v>159.4287331477285</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1357.823969289018</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2086,12 +1704,6 @@
       <c r="B64" t="n">
         <v>783</v>
       </c>
-      <c r="C64" t="n">
-        <v>132.72712680059</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1399.50261514568</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2100,12 +1712,6 @@
       <c r="B65" t="n">
         <v>788</v>
       </c>
-      <c r="C65" t="n">
-        <v>120.6724736361031</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1427.635371625442</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2114,12 +1720,6 @@
       <c r="B66" t="n">
         <v>794</v>
       </c>
-      <c r="C66" t="n">
-        <v>160.5687780261879</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1443.200924840191</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2128,12 +1728,6 @@
       <c r="B67" t="n">
         <v>799</v>
       </c>
-      <c r="C67" t="n">
-        <v>195.7355193533761</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1418.162751249637</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2142,12 +1736,6 @@
       <c r="B68" t="n">
         <v>805</v>
       </c>
-      <c r="C68" t="n">
-        <v>206.9822573022963</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1450.623310036378</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2156,12 +1744,6 @@
       <c r="B69" t="n">
         <v>810</v>
       </c>
-      <c r="C69" t="n">
-        <v>219.6235194680325</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1433.938290606466</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2170,12 +1752,6 @@
       <c r="B70" t="n">
         <v>816</v>
       </c>
-      <c r="C70" t="n">
-        <v>220.9827374933692</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1453.227707019622</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2184,12 +1760,6 @@
       <c r="B71" t="n">
         <v>821</v>
       </c>
-      <c r="C71" t="n">
-        <v>182.6756279685951</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1404.488828983327</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2197,12 +1767,6 @@
       </c>
       <c r="B72" t="n">
         <v>827</v>
-      </c>
-      <c r="C72" t="n">
-        <v>196.5371999939747</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1396.652930856747</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
+++ b/po_analysis_by_asin/B07C3DWK1Z_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,6 +955,30 @@
         <v>120</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -966,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,6 +1194,14 @@
         <v>120</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1181,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,7 +1238,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1246,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1222,7 +1254,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>239</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -1230,7 +1262,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>244</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -1238,7 +1270,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
@@ -1246,7 +1278,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -1254,7 +1286,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>261</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9">
@@ -1262,7 +1294,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>266</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10">
@@ -1270,7 +1302,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>283</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11">
@@ -1278,7 +1310,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>288</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1286,7 +1318,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1294,7 +1326,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>305</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14">
@@ -1302,7 +1334,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>310</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15">
@@ -1310,7 +1342,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>315</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16">
@@ -1318,7 +1350,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17">
@@ -1326,7 +1358,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>332</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1334,7 +1366,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>337</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1374,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>354</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20">
@@ -1350,7 +1382,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>359</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21">
@@ -1358,7 +1390,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>365</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22">
@@ -1366,7 +1398,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>370</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1406,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>376</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1382,7 +1414,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>387</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="25">
@@ -1390,7 +1422,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>409</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26">
@@ -1398,7 +1430,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>431</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27">
@@ -1406,7 +1438,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>447</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="28">
@@ -1414,7 +1446,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>453</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="29">
@@ -1422,7 +1454,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>458</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30">
@@ -1430,7 +1462,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>464</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1438,7 +1470,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1446,7 +1478,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>480</v>
+        <v>956</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1486,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>491</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34">
@@ -1462,7 +1494,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>497</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35">
@@ -1470,7 +1502,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1478,7 +1510,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>519</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -1486,7 +1518,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>524</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
@@ -1494,7 +1526,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>530</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
@@ -1502,7 +1534,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>535</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
@@ -1510,7 +1542,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>541</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41">
@@ -1518,7 +1550,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42">
@@ -1526,7 +1558,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>552</v>
+        <v>702</v>
       </c>
     </row>
     <row r="43">
@@ -1534,7 +1566,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>557</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44">
@@ -1542,7 +1574,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>563</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45">
@@ -1550,7 +1582,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>574</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
@@ -1558,7 +1590,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>585</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -1566,7 +1598,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>590</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48">
@@ -1574,7 +1606,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49">
@@ -1582,7 +1614,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>601</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50">
@@ -1590,7 +1622,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>607</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51">
@@ -1598,7 +1630,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>645</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52">
@@ -1606,7 +1638,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53">
@@ -1614,7 +1646,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>656</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54">
@@ -1622,7 +1654,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>662</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55">
@@ -1630,7 +1662,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>695</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="56">
@@ -1638,7 +1670,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>700</v>
+        <v>945</v>
       </c>
     </row>
     <row r="57">
@@ -1646,7 +1678,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>706</v>
+        <v>850</v>
       </c>
     </row>
     <row r="58">
@@ -1654,7 +1686,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>717</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59">
@@ -1662,7 +1694,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>722</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60">
@@ -1670,7 +1702,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>739</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="61">
@@ -1678,7 +1710,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>750</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62">
@@ -1686,7 +1718,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>755</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
@@ -1694,7 +1726,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>761</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64">
@@ -1702,71 +1734,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>788</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>794</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>799</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>805</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>810</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>816</v>
+        <v>703</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>821</v>
+        <v>857</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>827</v>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
